--- a/doc/debug-work.xlsx
+++ b/doc/debug-work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="405" windowWidth="27795" windowHeight="12285"/>
+    <workbookView xWindow="600" yWindow="405" windowWidth="27795" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="clock calc" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="135">
   <si>
     <t>---DE1 base clock 50 MHz</t>
   </si>
@@ -502,7 +502,107 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2612E1</t>
+    <t>25ED60</t>
+  </si>
+  <si>
+    <t>&gt;&gt; nmi ok.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2C5600</t>
+  </si>
+  <si>
+    <t>&gt;&gt;ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>32BEA0</t>
+  </si>
+  <si>
+    <t>&gt;ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>392740</t>
+  </si>
+  <si>
+    <t>#10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5F9B00</t>
+  </si>
+  <si>
+    <t>7FA620</t>
+  </si>
+  <si>
+    <t>#20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#25</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ng</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#26</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#27</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#28</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;wrong!!!</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>clock=</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B2EB20</t>
+  </si>
+  <si>
+    <t>AC8280</t>
+  </si>
+  <si>
+    <t>A619E0</t>
+  </si>
+  <si>
+    <t>#28 case</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -780,6 +880,53 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="26574750"/>
+          <a:ext cx="18288000" cy="10287000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="42519600"/>
           <a:ext cx="18288000" cy="10287000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3035,7 +3182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3246,19 +3393,19 @@
         <v>19</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G29" t="s">
-        <v>105</v>
+      <c r="G29">
+        <v>241264</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="str">
         <f>C29&amp;"回目のvblankは"</f>
-        <v>3回目のvblankは</v>
+        <v>26回目のvblankは</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
@@ -3267,7 +3414,7 @@
     <row r="31" spans="2:10">
       <c r="C31" s="5">
         <f>G27 + $C$26*(C29-1)</f>
-        <v>1225600</v>
+        <v>10885600</v>
       </c>
       <c r="D31" s="1"/>
       <c r="F31" t="s">
@@ -3275,21 +3422,21 @@
       </c>
       <c r="G31" s="1">
         <f>HEX2DEC(G29)</f>
-        <v>1225745</v>
+        <v>2364004</v>
       </c>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="2:10">
       <c r="C32" s="11" t="str">
         <f>DEC2HEX(C31)</f>
-        <v>12B380</v>
+        <v>A619E0</v>
       </c>
       <c r="D32" t="s">
         <v>100</v>
       </c>
       <c r="G32" s="11">
         <f>ROUND(G31/C26,1)</f>
-        <v>2.9</v>
+        <v>5.6</v>
       </c>
       <c r="H32" t="s">
         <v>22</v>
@@ -3304,10 +3451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:N220"/>
+  <dimension ref="A3:N248"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3576,7 +3723,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>96</v>
       </c>
@@ -3584,7 +3731,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>91</v>
       </c>
@@ -3596,6 +3743,188 @@
       </c>
       <c r="D220" t="s">
         <v>106</v>
+      </c>
+      <c r="E220" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>109</v>
+      </c>
+      <c r="B223" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>91</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C224" t="s">
+        <v>89</v>
+      </c>
+      <c r="D224" t="s">
+        <v>106</v>
+      </c>
+      <c r="E224" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>112</v>
+      </c>
+      <c r="B227" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>91</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C228" t="s">
+        <v>89</v>
+      </c>
+      <c r="D228" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>115</v>
+      </c>
+      <c r="B231" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>91</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C232" t="s">
+        <v>89</v>
+      </c>
+      <c r="D232" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>117</v>
+      </c>
+      <c r="B235" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>91</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C236" t="s">
+        <v>89</v>
+      </c>
+      <c r="D236" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>120</v>
+      </c>
+      <c r="B239" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>91</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C240" t="s">
+        <v>89</v>
+      </c>
+      <c r="D240" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>123</v>
+      </c>
+      <c r="B242" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>126</v>
+      </c>
+      <c r="B243" t="s">
+        <v>124</v>
+      </c>
+      <c r="E243" t="s">
+        <v>130</v>
+      </c>
+      <c r="F243" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>127</v>
+      </c>
+      <c r="B244" t="s">
+        <v>124</v>
+      </c>
+      <c r="E244" t="s">
+        <v>130</v>
+      </c>
+      <c r="F244" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C245" t="s">
+        <v>129</v>
+      </c>
+      <c r="E245" t="s">
+        <v>130</v>
+      </c>
+      <c r="F245" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="B248" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/doc/debug-work.xlsx
+++ b/doc/debug-work.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\999.my-proj\001.nes-fpga\repo\motonesfpga\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="405" windowWidth="27795" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="405" windowWidth="27795" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="clock calc" sheetId="1" r:id="rId1"/>
     <sheet name="smb debug" sheetId="3" r:id="rId2"/>
+    <sheet name="emu-info" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="183">
   <si>
     <t>---DE1 base clock 50 MHz</t>
   </si>
@@ -393,16 +399,305 @@
     <t>#28 case</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>nmi</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>回目</t>
+  </si>
+  <si>
+    <t>BGなし</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>BGのみ</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>BG+Spr</t>
+  </si>
+  <si>
+    <t>1e</t>
+  </si>
+  <si>
+    <t>sprite hit @(90, 29)</t>
+  </si>
+  <si>
+    <t>motonesemu start...</t>
+  </si>
+  <si>
+    <t>joypad key entry:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    select button:  &lt;Tab&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    start button:   &lt;Enter&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    up key:         Q, W, E, R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    down key:       Z, X, C, V, B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    left key:       A, S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    right key:      D, F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    A button:       &lt;:&gt;, &lt;]&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    B button:       L, &lt;;&gt;</t>
+  </si>
+  <si>
+    <t>cpu clock started.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8000: 78          SEI   </t>
+  </si>
+  <si>
+    <t>motonesemu: motonesemu: motonesemu: motonesemu: 1b00000000000000</t>
+  </si>
+  <si>
+    <t>1b, 0</t>
+  </si>
+  <si>
+    <t>motonesemu: motonesemu: ------------------</t>
+  </si>
+  <si>
+    <t>break...</t>
+  </si>
+  <si>
+    <t>clock: 1b00000000000000</t>
+  </si>
+  <si>
+    <t>6502 CPU registers:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pc:     8082</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> acc:    90</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x:      ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y:      ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sp:     fc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> status:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  negative:   1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  overflow:   0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  break:      0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  decimal:    0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  irq:        1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  zero:       0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  carry:      1</t>
+  </si>
+  <si>
+    <t>-------------------</t>
+  </si>
+  <si>
+    <t>1b00000000000000 8082: ad 78 07    LDA   $0778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0010: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0020: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0030: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0040: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0050: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0060: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0070: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0080: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0090: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00a0: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00b0: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00c0: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00d0: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00e0: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">00f0: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t>motonesemu: 1c00000000000000</t>
+  </si>
+  <si>
+    <t>1c, 0</t>
+  </si>
+  <si>
+    <t>motonesemu: motonesemu: sprite hit @(89, 29)</t>
+  </si>
+  <si>
+    <t>sprite hit @(91, 29)</t>
+  </si>
+  <si>
+    <t>sprite hit @(92, 29)</t>
+  </si>
+  <si>
+    <t>sprite hit @(93, 29)</t>
+  </si>
+  <si>
+    <t>sprite hit @(90, 30)</t>
+  </si>
+  <si>
+    <t>sprite hit @(91, 30)</t>
+  </si>
+  <si>
+    <t>sprite hit @(92, 30)</t>
+  </si>
+  <si>
+    <t>------------------</t>
+  </si>
+  <si>
+    <t>clock: 1c00000000000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x:      05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y:      00</t>
+  </si>
+  <si>
+    <t>1c00000000000000 8082: ad 78 07    LDA   $0778</t>
+  </si>
+  <si>
+    <t>motonesemu: 1d00000000000000</t>
+  </si>
+  <si>
+    <t>1d, 0</t>
+  </si>
+  <si>
+    <t>clock: 1d00000000000000</t>
+  </si>
+  <si>
+    <t>1d00000000000000 8082: ad 78 07    LDA   $0778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0010: b8 fc 00 30 c0 3a 00 28   c0 37 00 30 c8 4f 00 28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0020: c8 4f 40 30 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <t>motonesemu: 1e00000000000000</t>
+  </si>
+  <si>
+    <t>1e, 0</t>
+  </si>
+  <si>
+    <t>clock: 1e00000000000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y:      05</t>
+  </si>
+  <si>
+    <t>1e00000000000000 8082: ad 78 07    LDA   $0778</t>
+  </si>
+  <si>
+    <t>motonesemu: quit...</t>
+  </si>
+  <si>
+    <t>clean data...</t>
+  </si>
+  <si>
+    <t>cpu clock thread joined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000: f8 00 00 00 f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0000: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>18 ff 23 58</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> f8 00 00 00   f8 00 00 00 f8 00 00 00 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">0000: 18 ff 23 58 b0 fc 00 28   b0 fc 00 30 b8 fc 00 28 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -410,14 +705,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -425,7 +720,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -434,7 +729,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -443,10 +738,24 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -480,7 +789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,10 +823,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -725,8 +1037,171 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangular Callout 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="10001250"/>
+          <a:ext cx="1352550" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -95481"/>
+            <a:gd name="adj2" fmla="val 81601"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1b</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>nmi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DMA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>sprite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を設定していると思う。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="190500"/>
+          <a:ext cx="1352550" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -134213"/>
+            <a:gd name="adj2" fmla="val -16152"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>sprite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のみ設定</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -768,7 +1243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,9 +1275,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,6 +1310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1009,23 +1486,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" customWidth="1"/>
-    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6">
@@ -1218,7 +1695,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="18.75">
+    <row r="29" spans="2:10" ht="21">
       <c r="B29" s="8" t="s">
         <v>19</v>
       </c>
@@ -1280,14 +1757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A269" sqref="A269"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
@@ -1762,4 +2239,1025 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2">
+        <f>(HEX2DEC(B2))</f>
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3">
+        <f>(HEX2DEC(B3))</f>
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <f>(HEX2DEC(B4))</f>
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <f>(HEX2DEC(B5))</f>
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/debug-work.xlsx
+++ b/doc/debug-work.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="243">
   <si>
     <t>---DE1 base clock 50 MHz</t>
   </si>
@@ -687,6 +687,186 @@
   </si>
   <si>
     <t xml:space="preserve">0000: 18 ff 23 58 b0 fc 00 28   b0 fc 00 30 b8 fc 00 28 </t>
+  </si>
+  <si>
+    <t>control reg1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nmi_vblank:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sprite_size:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bg_ptn:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spr_ptn:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inc size:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name tbl:0</t>
+  </si>
+  <si>
+    <t>control reg2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intense r:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intense g:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> intense b:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> show spr:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> show bg:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> left 8 pix spr:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> left 8 pix bg:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> col mode:0</t>
+  </si>
+  <si>
+    <t>status reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vram_ignore:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sprite_overflow:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sprite0_hit:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vblank:1</t>
+  </si>
+  <si>
+    <t>vram_addr_reg:0000</t>
+  </si>
+  <si>
+    <t>vram_data_reg:18</t>
+  </si>
+  <si>
+    <t>scroll_reg:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> y:0</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>0x2000</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>chars</t>
+  </si>
+  <si>
+    <t>1 char = 32 byte</t>
+  </si>
+  <si>
+    <t>1 char has high and low pattern</t>
+  </si>
+  <si>
+    <t>each pattern has 8 x 8 pixels</t>
+  </si>
+  <si>
+    <t>128 pix = 128/8 = 16 byte.</t>
+  </si>
+  <si>
+    <t>2 pattern = 32 byte each.</t>
   </si>
 </sst>
 </file>
@@ -789,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,6 +1004,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,6 +1380,127 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>75429</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="190500"/>
+          <a:ext cx="6171429" cy="4695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangular Callout 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="942975"/>
+          <a:ext cx="1352550" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 61562"/>
+            <a:gd name="adj2" fmla="val -33006"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>pattern</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>index</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>@</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2243,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F202"/>
+  <dimension ref="A2:X202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2254,7 +2558,7 @@
     <col min="2" max="2" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -2272,7 +2576,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:13">
       <c r="B3" s="11" t="s">
         <v>98</v>
       </c>
@@ -2290,7 +2594,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:13">
       <c r="B4" s="11" t="s">
         <v>100</v>
       </c>
@@ -2305,7 +2609,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:13">
       <c r="B5" s="11" t="s">
         <v>102</v>
       </c>
@@ -2320,277 +2624,822 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:13">
       <c r="B8" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:13">
       <c r="B9" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:13">
       <c r="B10" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:13">
       <c r="B11" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:13">
       <c r="B12" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="M12" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="B13" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="M13" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="B14" s="11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="M14" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="B15" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="M15" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="B16" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="M16" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
       <c r="B17" s="11" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="M17" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
       <c r="B18" s="11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="M18" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24">
       <c r="B19" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="2:24">
       <c r="B20" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="M20" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24">
       <c r="B21" s="11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="M21" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24">
       <c r="B22" s="11" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="M22" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24">
       <c r="B23" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="M23" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24">
+      <c r="M24" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24">
       <c r="B25" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
+      <c r="M25" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24">
       <c r="B26" s="11" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
+      <c r="M26" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24">
       <c r="B27" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
+      <c r="M27" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24">
       <c r="B28" s="11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
+      <c r="M28" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q28">
+        <v>1000</v>
+      </c>
+      <c r="R28">
+        <v>4096</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>80</v>
+      </c>
+      <c r="W28" t="s">
+        <v>235</v>
+      </c>
+      <c r="X28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24">
       <c r="B29" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
+      <c r="M29" s="11"/>
+      <c r="Q29">
+        <v>1001</v>
+      </c>
+      <c r="R29">
+        <v>4128</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>81</v>
+      </c>
+      <c r="W29">
+        <v>256</v>
+      </c>
+      <c r="X29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24">
       <c r="B30" s="11" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
+      <c r="M30" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q30">
+        <v>1002</v>
+      </c>
+      <c r="R30">
+        <v>4160</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <v>82</v>
+      </c>
+      <c r="W30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24">
       <c r="B31" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
+      <c r="M31" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q31">
+        <v>1003</v>
+      </c>
+      <c r="R31">
+        <v>4192</v>
+      </c>
+      <c r="S31">
+        <v>3</v>
+      </c>
+      <c r="T31">
+        <v>83</v>
+      </c>
+      <c r="W31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24">
       <c r="B32" s="11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
+      <c r="M32" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q32">
+        <v>1004</v>
+      </c>
+      <c r="R32">
+        <v>4224</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <v>84</v>
+      </c>
+      <c r="W32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23">
       <c r="B33" s="11" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
+      <c r="M33" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q33">
+        <v>1005</v>
+      </c>
+      <c r="R33">
+        <v>4256</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>85</v>
+      </c>
+      <c r="W33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23">
       <c r="B34" s="11" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="M34" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q34">
+        <v>1006</v>
+      </c>
+      <c r="R34">
+        <v>4288</v>
+      </c>
+      <c r="S34">
+        <v>6</v>
+      </c>
+      <c r="T34">
+        <v>86</v>
+      </c>
+      <c r="W34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23">
       <c r="B35" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
+      <c r="M35" s="11"/>
+      <c r="Q35">
+        <v>1007</v>
+      </c>
+      <c r="R35">
+        <v>4320</v>
+      </c>
+      <c r="S35">
+        <v>7</v>
+      </c>
+      <c r="T35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23">
       <c r="B36" s="11" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
+      <c r="M36" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q36">
+        <v>1008</v>
+      </c>
+      <c r="R36">
+        <v>4352</v>
+      </c>
+      <c r="S36">
+        <v>8</v>
+      </c>
+      <c r="T36">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23">
       <c r="B37" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
+      <c r="M37" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q37">
+        <v>1009</v>
+      </c>
+      <c r="R37">
+        <v>4384</v>
+      </c>
+      <c r="S37">
+        <v>9</v>
+      </c>
+      <c r="T37">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23">
       <c r="B38" s="11" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
+      <c r="M38" s="11"/>
+      <c r="Q38">
+        <v>1010</v>
+      </c>
+      <c r="R38">
+        <v>4416</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="T38">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23">
       <c r="B39" s="11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
+      <c r="M39" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q39">
+        <v>1011</v>
+      </c>
+      <c r="R39">
+        <v>4448</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="T39">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23">
       <c r="B40" s="11" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
+      <c r="M40" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q40">
+        <v>1012</v>
+      </c>
+      <c r="R40">
+        <v>4480</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T40">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23">
       <c r="B41" s="11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
+      <c r="M41" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q41">
+        <v>1013</v>
+      </c>
+      <c r="R41">
+        <v>4512</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="T41">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23">
       <c r="B42" s="11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
+      <c r="Q42">
+        <v>1014</v>
+      </c>
+      <c r="R42">
+        <v>4544</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="T42">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23">
       <c r="B43" s="11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
+      <c r="Q43">
+        <v>1015</v>
+      </c>
+      <c r="R43">
+        <v>4576</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="T43">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23">
       <c r="B44" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
+      <c r="Q44">
+        <v>1016</v>
+      </c>
+      <c r="R44">
+        <v>4608</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="T44">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23">
       <c r="B45" s="11" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
+      <c r="Q45">
+        <v>1017</v>
+      </c>
+      <c r="R45">
+        <v>4640</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="T45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23">
       <c r="B46" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
+      <c r="Q46">
+        <v>1018</v>
+      </c>
+      <c r="R46">
+        <v>4672</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="T46">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23">
       <c r="B47" s="11" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
+      <c r="Q47">
+        <v>1019</v>
+      </c>
+      <c r="R47">
+        <v>4704</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="T47">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23">
       <c r="B48" s="11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
+      <c r="Q48">
+        <v>1020</v>
+      </c>
+      <c r="R48">
+        <v>4736</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="T48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20">
       <c r="B49" s="11" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
+      <c r="Q49">
+        <v>1021</v>
+      </c>
+      <c r="R49">
+        <v>4768</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="T49">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20">
       <c r="B50" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
+      <c r="Q50">
+        <v>1022</v>
+      </c>
+      <c r="R50">
+        <v>4800</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="T50">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20">
       <c r="B51" s="11" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="52" spans="2:2">
+      <c r="Q51">
+        <v>1023</v>
+      </c>
+      <c r="R51">
+        <v>4832</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="T51">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20">
       <c r="B52" s="11" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="53" spans="2:2">
+      <c r="Q52">
+        <v>1024</v>
+      </c>
+      <c r="R52">
+        <v>4864</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="T52">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20">
       <c r="B53" s="11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="54" spans="2:2">
+      <c r="Q53">
+        <v>1025</v>
+      </c>
+      <c r="R53">
+        <v>4896</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="T53">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20">
       <c r="B54" s="11" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="55" spans="2:2">
+      <c r="Q54">
+        <v>1026</v>
+      </c>
+      <c r="R54">
+        <v>4928</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="T54">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20">
       <c r="B55" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="56" spans="2:2">
+      <c r="Q55">
+        <v>1027</v>
+      </c>
+      <c r="R55">
+        <v>4960</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="T55">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20">
       <c r="B56" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="57" spans="2:2">
+      <c r="Q56">
+        <v>1028</v>
+      </c>
+      <c r="R56">
+        <v>4992</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="T56">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20">
       <c r="B57" s="11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="59" spans="2:2">
+      <c r="Q57">
+        <v>1029</v>
+      </c>
+      <c r="R57">
+        <v>5024</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="T57">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20">
+      <c r="Q58">
+        <v>1030</v>
+      </c>
+      <c r="R58">
+        <v>5056</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="T58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20">
       <c r="B59" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="60" spans="2:2">
+      <c r="Q59">
+        <v>1031</v>
+      </c>
+      <c r="R59">
+        <v>5088</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="T59">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20">
       <c r="B60" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="61" spans="2:2">
+      <c r="Q60">
+        <v>1032</v>
+      </c>
+      <c r="R60">
+        <v>5120</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="T60">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20">
       <c r="B61" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="62" spans="2:2">
+      <c r="Q61">
+        <v>1033</v>
+      </c>
+      <c r="R61">
+        <v>5152</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="T61">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20">
       <c r="B62" s="11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="63" spans="2:2">
+      <c r="Q62">
+        <v>1034</v>
+      </c>
+      <c r="R62">
+        <v>5184</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="T62">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20">
       <c r="B63" s="11" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="64" spans="2:2">
+      <c r="Q63">
+        <v>1035</v>
+      </c>
+      <c r="R63">
+        <v>5216</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="T63">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20">
       <c r="B64" s="11" t="s">
         <v>156</v>
       </c>

--- a/doc/debug-work.xlsx
+++ b/doc/debug-work.xlsx
@@ -10,6 +10,7 @@
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="405" windowWidth="27795" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="clock calc" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="767">
   <si>
     <t>---DE1 base clock 50 MHz</t>
   </si>
@@ -854,19 +855,1591 @@
     <t>chars</t>
   </si>
   <si>
-    <t>1 char = 32 byte</t>
-  </si>
-  <si>
     <t>1 char has high and low pattern</t>
   </si>
   <si>
     <t>each pattern has 8 x 8 pixels</t>
   </si>
   <si>
-    <t>128 pix = 128/8 = 16 byte.</t>
-  </si>
-  <si>
-    <t>2 pattern = 32 byte each.</t>
+    <t xml:space="preserve">motonesemu: motonesemu: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2030: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2040: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2050: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2060: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2070: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2080: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2090: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20a0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20b0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20c0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20d0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20e0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20f0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2100: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2110: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2120: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2130: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2140: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2150: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2160: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2170: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2180: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2190: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21a0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21b0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21c0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21d0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21e0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21f0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2200: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2210: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2220: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2230: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2240: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2250: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2260: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2270: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2280: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2290: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22a0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22b0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22c0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22d0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22e0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22f0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2300: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2310: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2320: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2330: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2340: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2350: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2360: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2370: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2380: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2390: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23a0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23b0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23c0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23d0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23e0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23f0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">motonesemu: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2400: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2410: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2420: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2430: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2440: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2450: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2460: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2470: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2480: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2490: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24a0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24b0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24c0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24d0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24e0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24f0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2500: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2510: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2520: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2530: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2540: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2550: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2560: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2570: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2580: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2590: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25a0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25b0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25c0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25d0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25e0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25f0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2600: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2610: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2620: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2630: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2640: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2650: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2660: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2670: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2680: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2690: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26a0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26b0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26c0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26d0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26e0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26f0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2700: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2710: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2720: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2730: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2740: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2760: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2770: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2780: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2790: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27a0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27b0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27c0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27d0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27e0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27f0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2800: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2810: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2820: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2830: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2840: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2850: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2860: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2870: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2880: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2890: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28a0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28b0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28c0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28d0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28e0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28f0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2910: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2920: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2930: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2940: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2950: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2960: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2970: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2980: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2990: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29a0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29b0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29c0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29d0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29e0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29f0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a00: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a10: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a20: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a30: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a40: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a50: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a60: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a70: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a80: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a90: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2aa0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ab0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ac0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ad0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ae0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2af0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b00: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b10: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b20: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b30: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b40: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b50: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b60: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b70: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b80: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b90: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ba0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2bb0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2bc0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2bd0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2be0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2bf0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c00: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c10: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c20: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c30: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c40: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c50: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c60: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c70: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c80: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c90: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ca0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2cb0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2cc0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2cd0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ce0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2cf0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d00: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d10: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d20: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d30: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d40: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d50: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d60: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d70: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d80: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d90: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2da0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2db0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dc0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dd0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2de0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2df0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e00: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e10: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e20: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e30: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e40: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e50: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e60: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e70: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e80: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e90: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ea0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2eb0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ec0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ed0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ee0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ef0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f00: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f10: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f20: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f30: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f40: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f50: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f60: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f70: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f80: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f90: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fa0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fb0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fc0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fd0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fe0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ff0: 00 00 00 00 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t>motonesemu: ------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2030: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2040: 24 24 24 16 0a 1b 12 18   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2050: 24 24 20 18 1b 15 0d 24   24 1d 12 16 0e 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2060: 24 24 24 00 00 00 00 00   00 24 24 2e 29 00 00 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2070: 24 24 24 01 28 01 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2080: 24 24 24 24 24 44 48 48   48 48 48 48 48 48 48 48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2090: 48 48 48 48 48 48 48 48   48 48 49 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20a0: 24 24 24 24 24 46 d0 d1   d8 d8 de d1 d0 da de d1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20b0: 26 26 26 26 26 26 26 26   26 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20c0: 24 24 24 24 24 46 d2 d3   db db db d9 db dc db df </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20d0: 26 26 26 26 26 26 26 26   26 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20e0: 24 24 24 24 24 46 d4 d5   d4 d9 db e2 d4 da db e0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20f0: 26 26 26 26 26 26 26 26   26 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2100: 24 24 24 24 24 46 d6 d7   d6 d7 e1 26 d6 dd e1 e1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2110: 26 26 26 26 26 26 26 26   26 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2120: 24 24 24 24 24 46 d0 e8   d1 d0 d1 de d1 d8 d0 d1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2130: 26 de d1 de d1 d0 d1 d0   d1 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2140: 24 24 24 24 24 46 db 42   42 db 42 db 42 db db 42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2150: 26 db 42 db 42 db 42 db   42 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2160: 24 24 24 24 24 46 db db   db db db db df db db db </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2170: 26 db df db df db db e4   e5 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2180: 24 24 24 24 24 46 db db   db de 43 db e0 db db db </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2190: 26 db e3 db e0 db db e6   e3 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21a0: 24 24 24 24 24 46 db db   db db 42 db db db d4 d9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21b0: 26 db d9 db db d4 d9 d4   d9 e7 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21c0: 24 24 24 24 24 5f 95 95   95 95 95 95 95 95 97 98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21d0: 78 95 96 95 95 97 98 97   98 95 7a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21e0: 24 24 24 24 24 24 24 24   24 24 24 24 24 cf 01 09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21f0: 08 05 24 17 12 17 1d 0e   17 0d 18 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2200: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2210: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2220: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2230: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2240: 24 24 24 24 24 24 24 24   24 ce 24 01 24 19 15 0a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2250: 22 0e 1b 24 10 0a 16 0e   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2260: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2270: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2280: 24 24 24 24 24 24 24 24   24 24 24 02 24 19 15 0a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2290: 22 0e 1b 24 10 0a 16 0e   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22a0: 24 24 24 24 31 32 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22b0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22c0: 24 24 24 30 26 34 33 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22d0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22e0: 24 24 30 26 26 26 26 33   24 24 24 24 1d 18 19 28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22f0: 24 00 00 00 00 00 00 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2300: 24 30 26 34 26 26 34 26   33 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2310: 24 24 24 24 24 24 24 24   36 37 36 37 36 37 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2320: 30 26 26 26 26 26 26 26   26 33 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2330: 24 24 24 24 24 24 24 35   25 25 25 25 25 25 38 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2340: b4 b5 b4 b5 b4 b5 b4 b5   b4 b5 b4 b5 b4 b5 b4 b5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2350: b4 b5 b4 b5 b4 b5 b4 b5   b4 b5 b4 b5 b4 b5 b4 b5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2360: b6 b7 b6 b7 b6 b7 b6 b7   b6 b7 b6 b7 b6 b7 b6 b7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2370: b6 b7 b6 b7 b6 b7 b6 b7   b6 b7 b6 b7 b6 b7 b6 b7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2380: b4 b5 b4 b5 b4 b5 b4 b5   b4 b5 b4 b5 b4 b5 b4 b5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2390: b4 b5 b4 b5 b4 b5 b4 b5   b4 b5 b4 b5 b4 b5 b4 b5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23a0: b6 b7 b6 b7 b6 b7 b6 b7   b6 b7 b6 b7 b6 b7 b6 b7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23b0: b6 b7 b6 b7 b6 b7 b6 b7   b6 b7 b6 b7 b6 b7 b6 b7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23c0: aa aa ea aa aa aa aa aa   00 55 55 55 55 55 55 55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23d0: 55 55 55 55 55 55 55 55   55 55 55 55 55 55 55 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23e0: 00 00 99 aa aa aa 00 00   00 00 99 aa aa aa 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23f0: 50 50 50 50 50 50 50 50   05 05 05 05 05 05 05 05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2400: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2410: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2420: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2430: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2440: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2450: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2460: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2470: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2480: 24 24 24 24 24 24 24 24   36 37 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2490: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24a0: 24 24 24 24 24 24 24 35   25 25 38 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24b0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24c0: 24 24 24 24 24 24 24 39   3a 3b 3c 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24d0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24e0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24f0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2500: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2510: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2520: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2530: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2540: 24 24 24 24 24 24 24 24   24 24 24 24 53 54 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2550: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2560: 24 24 24 24 24 24 24 24   24 24 24 24 55 56 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2570: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2580: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2590: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25a0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25b0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25c0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25d0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25e0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25f0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2600: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2610: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2620: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2630: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2640: 53 54 24 24 24 24 24 24   45 45 53 54 45 45 53 54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2650: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2660: 55 56 24 24 24 24 24 24   47 47 55 56 47 47 55 56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2670: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2680: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2690: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26a0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26b0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26c0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26d0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26e0: 24 24 31 32 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26f0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2700: 24 30 26 34 33 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2710: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2720: 30 26 26 26 26 33 24 24   24 24 24 24 24 24 24 35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2730: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2740: b4 b5 b4 b5 b4 b5 b4 b5   b4 b5 b4 b5 b4 b5 b4 b5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2760: b6 b7 b6 b7 b6 b7 b6 b7   b6 b7 b6 b7 b6 b7 b6 b7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2770: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2780: b4 b5 b4 b5 b4 b5 b4 b5   b4 b5 b4 b5 b4 b5 b4 b5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2790: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27a0: b6 b7 b6 b7 b6 b7 b6 b7   b6 b7 b6 b7 b6 b7 b6 b7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27b0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27c0: 00 00 00 00 00 00 00 00   00 88 aa 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27d0: 00 00 00 30 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27e0: 30 00 d0 d0 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27f0: 50 50 50 50 00 00 00 00   05 05 05 05 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2800: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2810: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2820: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2830: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2840: 24 24 24 16 0a 1b 12 18   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2850: 24 24 20 18 1b 15 0d 24   24 1d 12 16 0e 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2860: 24 24 24 00 00 00 00 00   00 24 24 2e 29 00 00 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2870: 24 24 24 01 28 01 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2880: 24 24 24 24 24 44 48 48   48 48 48 48 48 48 48 48 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2890: 48 48 48 48 48 48 48 48   48 48 49 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28a0: 24 24 24 24 24 46 d0 d1   d8 d8 de d1 d0 da de d1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28b0: 26 26 26 26 26 26 26 26   26 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28c0: 24 24 24 24 24 46 d2 d3   db db db d9 db dc db df </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28d0: 26 26 26 26 26 26 26 26   26 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28e0: 24 24 24 24 24 46 d4 d5   d4 d9 db e2 d4 da db e0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28f0: 26 26 26 26 26 26 26 26   26 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900: 24 24 24 24 24 46 d6 d7   d6 d7 e1 26 d6 dd e1 e1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2910: 26 26 26 26 26 26 26 26   26 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2920: 24 24 24 24 24 46 d0 e8   d1 d0 d1 de d1 d8 d0 d1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2930: 26 de d1 de d1 d0 d1 d0   d1 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2940: 24 24 24 24 24 46 db 42   42 db 42 db 42 db db 42 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2950: 26 db 42 db 42 db 42 db   42 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2960: 24 24 24 24 24 46 db db   db db db db df db db db </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2970: 26 db df db df db db e4   e5 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2980: 24 24 24 24 24 46 db db   db de 43 db e0 db db db </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2990: 26 db e3 db e0 db db e6   e3 26 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29a0: 24 24 24 24 24 46 db db   db db 42 db db db d4 d9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29b0: 26 db d9 db db d4 d9 d4   d9 e7 4a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29c0: 24 24 24 24 24 5f 95 95   95 95 95 95 95 95 97 98 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29d0: 78 95 96 95 95 97 98 97   98 95 7a 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29e0: 24 24 24 24 24 24 24 24   24 24 24 24 24 cf 01 09 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29f0: 08 05 24 17 12 17 1d 0e   17 0d 18 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a00: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a10: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a20: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a30: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a40: 24 24 24 24 24 24 24 24   24 ce 24 01 24 19 15 0a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a50: 22 0e 1b 24 10 0a 16 0e   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a60: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a70: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a80: 24 24 24 24 24 24 24 24   24 24 24 02 24 19 15 0a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a90: 22 0e 1b 24 10 0a 16 0e   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2aa0: 24 24 24 24 31 32 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ab0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ac0: 24 24 24 30 26 34 33 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ad0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ae0: 24 24 30 26 26 26 26 33   24 24 24 24 1d 18 19 28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2af0: 24 00 00 00 00 00 00 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b00: 24 30 26 34 26 26 34 26   33 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b10: 24 24 24 24 24 24 24 24   36 37 36 37 36 37 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b20: 30 26 26 26 26 26 26 26   26 33 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b30: 24 24 24 24 24 24 24 35   25 25 25 25 25 25 38 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b40: b4 b5 b4 b5 b4 b5 b4 b5   b4 b5 b4 b5 b4 b5 b4 b5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b50: b4 b5 b4 b5 b4 b5 b4 b5   b4 b5 b4 b5 b4 b5 b4 b5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b60: b6 b7 b6 b7 b6 b7 b6 b7   b6 b7 b6 b7 b6 b7 b6 b7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b70: b6 b7 b6 b7 b6 b7 b6 b7   b6 b7 b6 b7 b6 b7 b6 b7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b80: b4 b5 b4 b5 b4 b5 b4 b5   b4 b5 b4 b5 b4 b5 b4 b5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b90: b4 b5 b4 b5 b4 b5 b4 b5   b4 b5 b4 b5 b4 b5 b4 b5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ba0: b6 b7 b6 b7 b6 b7 b6 b7   b6 b7 b6 b7 b6 b7 b6 b7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2bb0: b6 b7 b6 b7 b6 b7 b6 b7   b6 b7 b6 b7 b6 b7 b6 b7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2bc0: aa aa ea aa aa aa aa aa   00 55 55 55 55 55 55 55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2bd0: 55 55 55 55 55 55 55 55   55 55 55 55 55 55 55 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2be0: 00 00 99 aa aa aa 00 00   00 00 99 aa aa aa 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2bf0: 50 50 50 50 50 50 50 50   05 05 05 05 05 05 05 05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c00: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c10: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c20: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c30: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c40: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c50: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c60: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c70: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c80: 24 24 24 24 24 24 24 24   36 37 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c90: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ca0: 24 24 24 24 24 24 24 35   25 25 38 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2cb0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2cc0: 24 24 24 24 24 24 24 39   3a 3b 3c 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2cd0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ce0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2cf0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d00: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d10: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d20: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d30: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d40: 24 24 24 24 24 24 24 24   24 24 24 24 53 54 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d50: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d60: 24 24 24 24 24 24 24 24   24 24 24 24 55 56 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d70: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d80: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d90: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2da0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2db0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dc0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dd0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2de0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2df0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e00: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e10: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e20: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e30: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e40: 53 54 24 24 24 24 24 24   45 45 53 54 45 45 53 54 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e50: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e60: 55 56 24 24 24 24 24 24   47 47 55 56 47 47 55 56 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e70: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e80: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2e90: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ea0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2eb0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ec0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ed0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ee0: 24 24 31 32 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ef0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f00: 24 30 26 34 33 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f10: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f20: 30 26 26 26 26 33 24 24   24 24 24 24 24 24 24 35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f30: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f40: b4 b5 b4 b5 b4 b5 b4 b5   b4 b5 b4 b5 b4 b5 b4 b5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f50: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f60: b6 b7 b6 b7 b6 b7 b6 b7   b6 b7 b6 b7 b6 b7 b6 b7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f70: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f80: b4 b5 b4 b5 b4 b5 b4 b5   b4 b5 b4 b5 b4 b5 b4 b5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2f90: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fa0: b6 b7 b6 b7 b6 b7 b6 b7   b6 b7 b6 b7 b6 b7 b6 b7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fb0: 24 24 24 24 24 24 24 24   24 24 24 24 24 24 24 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fc0: 00 00 00 00 00 00 00 00   00 88 aa 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fd0: 00 00 00 30 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2fe0: 30 00 d0 d0 00 00 00 00   00 00 00 00 00 00 00 00 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ff0: 50 50 50 50 00 00 00 00   05 05 05 05 00 00 00 00 </t>
+  </si>
+  <si>
+    <t>0x2000 = 0x2800</t>
+  </si>
+  <si>
+    <t>0x2400 = 0x2c00</t>
+  </si>
+  <si>
+    <t>64 pix = 64/8 = 8 byte.</t>
+  </si>
+  <si>
+    <t>1 line = 100 byte</t>
+  </si>
+  <si>
+    <t>1 line 10 chr</t>
+  </si>
+  <si>
+    <t>1 chr 10 byte.</t>
+  </si>
+  <si>
+    <t>&gt;&gt; 1 chr = 8x2 = 16 bytes.</t>
+  </si>
+  <si>
+    <t>spr</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>0x0000 = bg</t>
+  </si>
+  <si>
+    <t>0x2000 = spr</t>
+  </si>
+  <si>
+    <t>M=0x16</t>
   </si>
 </sst>
 </file>
@@ -969,7 +2542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,6 +2581,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1226,13 +2802,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1313,13 +2889,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1384,13 +2960,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>75429</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>123238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1422,13 +2998,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1496,6 +3072,141 @@
             <a:t>1000</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>151619</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>170833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="96202500"/>
+          <a:ext cx="6247619" cy="4933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>75429</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16459200" y="190500"/>
+          <a:ext cx="6171429" cy="4695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>518</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangular Callout 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5305425" y="97888425"/>
+          <a:ext cx="1123950" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -253884"/>
+            <a:gd name="adj2" fmla="val -28088"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>MARIO</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1796,6 +3507,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2067,6 +3779,7 @@
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2547,10 +4260,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X202"/>
+  <dimension ref="A4:AB776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
+      <selection activeCell="J520" sqref="J520"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="1">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2558,1549 +4274,4517 @@
     <col min="2" max="2" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="4" spans="1:28">
+      <c r="P4" t="s">
+        <v>762</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C2">
-        <f>(HEX2DEC(B2))</f>
+      <c r="C6">
+        <f>(HEX2DEC(B6))</f>
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D6" t="s">
         <v>96</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="B3" s="11" t="s">
+    <row r="7" spans="1:28">
+      <c r="B7" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C3">
-        <f>(HEX2DEC(B3))</f>
+      <c r="C7">
+        <f>(HEX2DEC(B7))</f>
         <v>28</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" t="s">
         <v>96</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E7" t="s">
         <v>99</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="11" t="s">
+    <row r="8" spans="1:28">
+      <c r="B8" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C4">
-        <f>(HEX2DEC(B4))</f>
+      <c r="C8">
+        <f>(HEX2DEC(B8))</f>
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
         <v>96</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="11" t="s">
+    <row r="9" spans="1:28">
+      <c r="B9" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C5">
-        <f>(HEX2DEC(B5))</f>
+      <c r="C9">
+        <f>(HEX2DEC(B9))</f>
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D9" t="s">
         <v>96</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="11" t="s">
+    <row r="12" spans="1:28">
+      <c r="B12" s="11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="11" t="s">
+    <row r="13" spans="1:28">
+      <c r="B13" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="11" t="s">
+    <row r="14" spans="1:28">
+      <c r="B14" s="11" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="11" t="s">
+    <row r="15" spans="1:28">
+      <c r="B15" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="11" t="s">
+    <row r="16" spans="1:28">
+      <c r="B16" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="11" t="s">
+    <row r="17" spans="2:25">
+      <c r="B17" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="11" t="s">
+    <row r="18" spans="2:25">
+      <c r="B18" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M18" s="11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="11" t="s">
+    <row r="19" spans="2:25">
+      <c r="B19" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M19" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="B16" s="11" t="s">
+    <row r="20" spans="2:25">
+      <c r="B20" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="2:24">
-      <c r="B17" s="11" t="s">
+    <row r="21" spans="2:25">
+      <c r="B21" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M21" s="11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="2:24">
-      <c r="B18" s="11" t="s">
+    <row r="22" spans="2:25">
+      <c r="B22" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M22" s="11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="2:24">
-      <c r="B19" s="11" t="s">
+    <row r="23" spans="2:25">
+      <c r="B23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="2:24">
-      <c r="B20" s="11" t="s">
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="2:25">
+      <c r="B24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="2:24">
-      <c r="B21" s="11" t="s">
+    <row r="25" spans="2:25">
+      <c r="B25" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="2:24">
-      <c r="B22" s="11" t="s">
+    <row r="26" spans="2:25">
+      <c r="B26" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M26" s="11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="2:24">
-      <c r="B23" s="11" t="s">
+    <row r="27" spans="2:25">
+      <c r="B27" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M27" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="2:24">
-      <c r="M24" s="11" t="s">
+    <row r="28" spans="2:25">
+      <c r="M28" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="2:24">
-      <c r="B25" s="11" t="s">
+    <row r="29" spans="2:25">
+      <c r="B29" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M29" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="2:24">
-      <c r="B26" s="11" t="s">
+    <row r="30" spans="2:25">
+      <c r="B30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M30" s="11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="2:24">
-      <c r="B27" s="11" t="s">
+    <row r="31" spans="2:25">
+      <c r="B31" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M31" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="2:24">
-      <c r="B28" s="11" t="s">
+    <row r="32" spans="2:25">
+      <c r="B32" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M32" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="Q28">
+      <c r="Q32">
         <v>1000</v>
       </c>
-      <c r="R28">
+      <c r="R32">
         <v>4096</v>
       </c>
-      <c r="S28">
+      <c r="S32">
         <v>0</v>
       </c>
-      <c r="T28">
-        <v>80</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32" t="str">
+        <f>DEC2HEX(T32)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
         <v>235</v>
       </c>
-      <c r="X28" t="s">
+      <c r="X32" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="29" spans="2:24">
-      <c r="B29" s="11" t="s">
+      <c r="Y32">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26">
+      <c r="B33" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="M29" s="11"/>
-      <c r="Q29">
+      <c r="M33" s="11"/>
+      <c r="Q33">
         <v>1001</v>
       </c>
-      <c r="R29">
+      <c r="R33">
         <v>4128</v>
       </c>
-      <c r="S29">
+      <c r="S33">
         <v>1</v>
       </c>
-      <c r="T29">
-        <v>81</v>
-      </c>
-      <c r="W29">
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" ref="U33:U67" si="0">DEC2HEX(T33)</f>
+        <v>1</v>
+      </c>
+      <c r="W33">
         <v>256</v>
       </c>
-      <c r="X29" t="s">
+      <c r="X33" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="30" spans="2:24">
-      <c r="B30" s="11" t="s">
+    <row r="34" spans="2:26">
+      <c r="B34" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M34" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="Q30">
+      <c r="Q34">
         <v>1002</v>
       </c>
-      <c r="R30">
+      <c r="R34">
         <v>4160</v>
       </c>
-      <c r="S30">
+      <c r="S34">
         <v>2</v>
       </c>
-      <c r="T30">
-        <v>82</v>
-      </c>
-      <c r="W30" t="s">
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26">
+      <c r="B35" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q35">
+        <v>1003</v>
+      </c>
+      <c r="R35">
+        <v>4192</v>
+      </c>
+      <c r="S35">
+        <v>3</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="W35" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="2:24">
-      <c r="B31" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q31">
-        <v>1003</v>
-      </c>
-      <c r="R31">
-        <v>4192</v>
-      </c>
-      <c r="S31">
-        <v>3</v>
-      </c>
-      <c r="T31">
-        <v>83</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="36" spans="2:26">
+      <c r="B36" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q36">
+        <v>1004</v>
+      </c>
+      <c r="R36">
+        <v>4224</v>
+      </c>
+      <c r="S36">
+        <v>4</v>
+      </c>
+      <c r="T36">
+        <v>4</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W36" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="2:24">
-      <c r="B32" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q32">
-        <v>1004</v>
-      </c>
-      <c r="R32">
-        <v>4224</v>
-      </c>
-      <c r="S32">
-        <v>4</v>
-      </c>
-      <c r="T32">
-        <v>84</v>
-      </c>
-      <c r="W32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23">
-      <c r="B33" s="11" t="s">
+    <row r="37" spans="2:26">
+      <c r="B37" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M37" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="Q33">
+      <c r="Q37">
         <v>1005</v>
       </c>
-      <c r="R33">
+      <c r="R37">
         <v>4256</v>
       </c>
-      <c r="S33">
+      <c r="S37">
         <v>5</v>
       </c>
-      <c r="T33">
-        <v>85</v>
-      </c>
-      <c r="W33" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23">
-      <c r="B34" s="11" t="s">
+      <c r="T37">
+        <v>5</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W37" t="s">
+        <v>757</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26">
+      <c r="B38" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M38" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="Q34">
+      <c r="Q38">
         <v>1006</v>
       </c>
-      <c r="R34">
+      <c r="R38">
         <v>4288</v>
       </c>
-      <c r="S34">
+      <c r="S38">
         <v>6</v>
       </c>
-      <c r="T34">
-        <v>86</v>
-      </c>
-      <c r="W34" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23">
-      <c r="B35" s="11" t="s">
+      <c r="T38">
+        <v>6</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26">
+      <c r="B39" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="Q35">
+      <c r="M39" s="11"/>
+      <c r="Q39">
         <v>1007</v>
       </c>
-      <c r="R35">
+      <c r="R39">
         <v>4320</v>
       </c>
-      <c r="S35">
+      <c r="S39">
         <v>7</v>
       </c>
-      <c r="T35">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23">
-      <c r="B36" s="11" t="s">
+      <c r="T39">
+        <v>7</v>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="W39" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26">
+      <c r="B40" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M40" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="Q36">
+      <c r="Q40">
         <v>1008</v>
       </c>
-      <c r="R36">
+      <c r="R40">
         <v>4352</v>
       </c>
-      <c r="S36">
+      <c r="S40">
         <v>8</v>
       </c>
-      <c r="T36">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23">
-      <c r="B37" s="11" t="s">
+      <c r="T40">
+        <v>8</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="W40" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26">
+      <c r="B41" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M41" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="Q37">
+      <c r="Q41">
         <v>1009</v>
       </c>
-      <c r="R37">
+      <c r="R41">
         <v>4384</v>
       </c>
-      <c r="S37">
+      <c r="S41">
         <v>9</v>
       </c>
-      <c r="T37">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23">
-      <c r="B38" s="11" t="s">
+      <c r="T41">
+        <v>9</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="W41" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26">
+      <c r="B42" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="M38" s="11"/>
-      <c r="Q38">
+      <c r="M42" s="11"/>
+      <c r="Q42">
         <v>1010</v>
       </c>
-      <c r="R38">
+      <c r="R42">
         <v>4416</v>
       </c>
-      <c r="S38" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="T38">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23">
-      <c r="B39" s="11" t="s">
+      <c r="T42">
+        <v>10</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26">
+      <c r="B43" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="Q39">
+      <c r="Q43">
         <v>1011</v>
       </c>
-      <c r="R39">
+      <c r="R43">
         <v>4448</v>
       </c>
-      <c r="S39" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="T39">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23">
-      <c r="B40" s="11" t="s">
+      <c r="T43">
+        <v>11</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26">
+      <c r="B44" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="M44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="Q40">
+      <c r="Q44">
         <v>1012</v>
       </c>
-      <c r="R40">
+      <c r="R44">
         <v>4480</v>
       </c>
-      <c r="S40" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="T40">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23">
-      <c r="B41" s="11" t="s">
+      <c r="T44">
+        <v>12</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="W44" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26">
+      <c r="B45" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="M45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="Q41">
+      <c r="Q45">
         <v>1013</v>
       </c>
-      <c r="R41">
+      <c r="R45">
         <v>4512</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="T41">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23">
-      <c r="B42" s="11" t="s">
+      <c r="T45">
+        <v>13</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="W45" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="B46" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="Q42">
+      <c r="Q46">
         <v>1014</v>
       </c>
-      <c r="R42">
+      <c r="R46">
         <v>4544</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="T42">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23">
-      <c r="B43" s="11" t="s">
+      <c r="T46">
+        <v>14</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26">
+      <c r="B47" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="Q43">
+      <c r="Q47">
         <v>1015</v>
       </c>
-      <c r="R43">
+      <c r="R47">
         <v>4576</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="T43">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23">
-      <c r="B44" s="11" t="s">
+      <c r="T47">
+        <v>15</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="0"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26">
+      <c r="B48" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="Q44">
+      <c r="Q48">
         <v>1016</v>
       </c>
-      <c r="R44">
+      <c r="R48">
         <v>4608</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="T44">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23">
-      <c r="B45" s="11" t="s">
+      <c r="T48">
+        <v>16</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21">
+      <c r="B49" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="Q45">
+      <c r="Q49">
         <v>1017</v>
       </c>
-      <c r="R45">
+      <c r="R49">
         <v>4640</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="T45">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23">
-      <c r="B46" s="11" t="s">
+      <c r="T49">
+        <v>17</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="Q46">
+      <c r="Q50">
         <v>1018</v>
       </c>
-      <c r="R46">
+      <c r="R50">
         <v>4672</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="S50" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="T46">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23">
-      <c r="B47" s="11" t="s">
+      <c r="T50">
+        <v>18</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="Q47">
+      <c r="Q51">
         <v>1019</v>
       </c>
-      <c r="R47">
+      <c r="R51">
         <v>4704</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="S51" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="T47">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23">
-      <c r="B48" s="11" t="s">
+      <c r="T51">
+        <v>19</v>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="Q48">
+      <c r="Q52">
         <v>1020</v>
       </c>
-      <c r="R48">
+      <c r="R52">
         <v>4736</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="T48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20">
-      <c r="B49" s="11" t="s">
+      <c r="T52">
+        <v>20</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="Q49">
+      <c r="Q53">
         <v>1021</v>
       </c>
-      <c r="R49">
+      <c r="R53">
         <v>4768</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="S53" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="T49">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="11" t="s">
+      <c r="T53">
+        <v>21</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="Q50">
+      <c r="Q54">
         <v>1022</v>
       </c>
-      <c r="R50">
+      <c r="R54">
         <v>4800</v>
       </c>
-      <c r="S50" s="3" t="s">
+      <c r="S54" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="T50">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20">
-      <c r="B51" s="11" t="s">
+      <c r="T54" s="7">
+        <v>22</v>
+      </c>
+      <c r="U54" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="B55" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="Q51">
+      <c r="Q55">
         <v>1023</v>
       </c>
-      <c r="R51">
+      <c r="R55">
         <v>4832</v>
       </c>
-      <c r="S51" s="3" t="s">
+      <c r="S55" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="T51">
+      <c r="T55">
+        <v>23</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21">
+      <c r="B56" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q56">
+        <v>1024</v>
+      </c>
+      <c r="R56">
+        <v>4864</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="T56">
+        <v>24</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21">
+      <c r="B57" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q57">
+        <v>1025</v>
+      </c>
+      <c r="R57">
+        <v>4896</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="T57">
+        <v>25</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21">
+      <c r="B58" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q58">
+        <v>1026</v>
+      </c>
+      <c r="R58">
+        <v>4928</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="T58">
+        <v>26</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" si="0"/>
+        <v>1A</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21">
+      <c r="B59" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q59">
+        <v>1027</v>
+      </c>
+      <c r="R59">
+        <v>4960</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="T59">
+        <v>27</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" si="0"/>
+        <v>1B</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21">
+      <c r="B60" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q60">
+        <v>1028</v>
+      </c>
+      <c r="R60">
+        <v>4992</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="T60">
+        <v>28</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" si="0"/>
+        <v>1C</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21">
+      <c r="B61" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q61">
+        <v>1029</v>
+      </c>
+      <c r="R61">
+        <v>5024</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="T61">
+        <v>29</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" si="0"/>
+        <v>1D</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21">
+      <c r="Q62">
+        <v>1030</v>
+      </c>
+      <c r="R62">
+        <v>5056</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="T62">
+        <v>30</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="0"/>
+        <v>1E</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21">
+      <c r="B63" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q63">
+        <v>1031</v>
+      </c>
+      <c r="R63">
+        <v>5088</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="T63">
+        <v>31</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="0"/>
+        <v>1F</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21">
+      <c r="B64" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q64">
+        <v>1032</v>
+      </c>
+      <c r="R64">
+        <v>5120</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="T64">
+        <v>32</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21">
+      <c r="B65" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q65">
+        <v>1033</v>
+      </c>
+      <c r="R65">
+        <v>5152</v>
+      </c>
+      <c r="S65" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="T65">
+        <v>33</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21">
+      <c r="B66" s="11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" spans="2:20">
-      <c r="B52" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q52">
-        <v>1024</v>
-      </c>
-      <c r="R52">
-        <v>4864</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="T52">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20">
-      <c r="B53" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q53">
-        <v>1025</v>
-      </c>
-      <c r="R53">
-        <v>4896</v>
-      </c>
-      <c r="S53" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="T53">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20">
-      <c r="B54" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q54">
-        <v>1026</v>
-      </c>
-      <c r="R54">
-        <v>4928</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="T54">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20">
-      <c r="B55" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q55">
-        <v>1027</v>
-      </c>
-      <c r="R55">
-        <v>4960</v>
-      </c>
-      <c r="S55" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="T55">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="2:20">
-      <c r="B56" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q56">
-        <v>1028</v>
-      </c>
-      <c r="R56">
-        <v>4992</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="T56">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20">
-      <c r="B57" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q57">
-        <v>1029</v>
-      </c>
-      <c r="R57">
-        <v>5024</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="T57">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="2:20">
-      <c r="Q58">
-        <v>1030</v>
-      </c>
-      <c r="R58">
-        <v>5056</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="T58">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="2:20">
-      <c r="B59" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q59">
-        <v>1031</v>
-      </c>
-      <c r="R59">
-        <v>5088</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="T59">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="2:20">
-      <c r="B60" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q60">
-        <v>1032</v>
-      </c>
-      <c r="R60">
-        <v>5120</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="T60">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="2:20">
-      <c r="B61" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q61">
-        <v>1033</v>
-      </c>
-      <c r="R61">
-        <v>5152</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="T61">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="2:20">
-      <c r="B62" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q62">
+      <c r="Q66">
         <v>1034</v>
       </c>
-      <c r="R62">
+      <c r="R66">
         <v>5184</v>
       </c>
-      <c r="S62" s="3" t="s">
+      <c r="S66" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="T62">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="2:20">
-      <c r="B63" s="11" t="s">
+      <c r="T66">
+        <v>34</v>
+      </c>
+      <c r="U66" t="str">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21">
+      <c r="B67" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="Q63">
+      <c r="Q67">
         <v>1035</v>
       </c>
-      <c r="R63">
+      <c r="R67">
         <v>5216</v>
       </c>
-      <c r="S63" s="3" t="s">
+      <c r="S67" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="T63">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="2:20">
-      <c r="B64" s="11" t="s">
+      <c r="T67">
+        <v>35</v>
+      </c>
+      <c r="U67" t="str">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21">
+      <c r="B68" s="11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="11" t="s">
+    <row r="69" spans="2:21">
+      <c r="B69" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="11" t="s">
+    <row r="70" spans="2:21">
+      <c r="B70" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="11" t="s">
+    <row r="71" spans="2:21">
+      <c r="B71" s="11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="11" t="s">
+    <row r="72" spans="2:21">
+      <c r="B72" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="11" t="s">
+    <row r="73" spans="2:21">
+      <c r="B73" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="11" t="s">
+    <row r="74" spans="2:21">
+      <c r="B74" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="11" t="s">
+    <row r="76" spans="2:21">
+      <c r="B76" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="11" t="s">
+    <row r="77" spans="2:21">
+      <c r="B77" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="11" t="s">
+    <row r="78" spans="2:21">
+      <c r="B78" s="11" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="11" t="s">
+    <row r="79" spans="2:21">
+      <c r="B79" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="11" t="s">
+    <row r="80" spans="2:21">
+      <c r="B80" s="11" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="11" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="11" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="11" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="11" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="11" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="11" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="11" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="11" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="11" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="11" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="11" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" s="11" t="s">
-        <v>119</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="11" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="11" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" s="11" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" s="11" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" s="11" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" s="11" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" s="11" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" s="11" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="11" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="11" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="11" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="11" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" s="11" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" s="11" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" s="11" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="11" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" s="11" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="11" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" s="11" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" s="11" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="11" t="s">
-        <v>119</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" s="11" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" s="11" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" s="11" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" s="11" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" s="11" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" s="11" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="11" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="11" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="11" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="11" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="11" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="11" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="11" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" s="11" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" s="11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" s="11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" s="11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" s="11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" s="11" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" s="11" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" s="11" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="11" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" s="11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="11" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="11" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="11" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" s="11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" s="11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" s="11" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="11" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" s="11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" s="11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" s="11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" s="11" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" s="11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" s="11" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" s="11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" s="11" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2">
+      <c r="B391" s="11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" s="11" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" s="11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396" s="11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" s="11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2">
+      <c r="B400" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2">
+      <c r="B402" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404" s="11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" s="11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2">
+      <c r="B408" s="11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" s="11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411" s="11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2">
+      <c r="B413" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2">
+      <c r="B414" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415" s="11" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416" s="11" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2">
+      <c r="B417" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2">
+      <c r="B418" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" s="11" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2">
+      <c r="B423" s="11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424" s="11" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2">
+      <c r="B425" s="11" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2">
+      <c r="B426" s="11" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2">
+      <c r="B427" s="11" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2">
+      <c r="B428" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2">
+      <c r="B429" s="11" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2">
+      <c r="B430" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2">
+      <c r="B431" s="11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2">
+      <c r="B432" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2">
+      <c r="B433" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2">
+      <c r="B434" s="11" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2">
+      <c r="B436" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2">
+      <c r="B438" s="11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2">
+      <c r="B441" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" s="11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" s="11" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448" s="11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" s="11" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2">
+      <c r="B452" s="11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2">
+      <c r="B453" s="11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2">
+      <c r="B454" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2">
+      <c r="B455" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2">
+      <c r="B456" s="11" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2">
+      <c r="B457" s="11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2">
+      <c r="B459" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2">
+      <c r="B460" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2">
+      <c r="B463" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2">
+      <c r="B464" s="11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465" s="11" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2">
+      <c r="B466" s="11" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467" s="11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2">
+      <c r="B468" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470" s="11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2">
+      <c r="B471" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2">
+      <c r="B472" s="11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2">
+      <c r="B473" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2">
+      <c r="B474" s="11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2">
+      <c r="B475" s="11" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2">
+      <c r="B476" s="11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2">
+      <c r="B477" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2">
+      <c r="B478" s="11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2">
+      <c r="B479" s="11" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2">
+      <c r="B480" s="11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2">
+      <c r="B481" s="11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2">
+      <c r="B482" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2">
+      <c r="B483" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2">
+      <c r="B484" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2">
+      <c r="B485" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2">
+      <c r="B486" s="11" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2">
+      <c r="B488" s="11" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2">
+      <c r="B489" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2">
+      <c r="B491" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2">
+      <c r="B492" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2">
+      <c r="B493" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2">
+      <c r="B494" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2">
+      <c r="B495" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2">
+      <c r="B496" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="497" spans="2:13">
+      <c r="B497" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="498" spans="2:13">
+      <c r="B498" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="499" spans="2:13">
+      <c r="B499" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="500" spans="2:13">
+      <c r="B500" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="501" spans="2:13">
+      <c r="B501" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="502" spans="2:13">
+      <c r="B502" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="503" spans="2:13">
+      <c r="B503" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="504" spans="2:13">
+      <c r="B504" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="505" spans="2:13">
+      <c r="B505" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="506" spans="2:13">
+      <c r="B506" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="507" spans="2:13">
+      <c r="B507" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="508" spans="2:13">
+      <c r="B508" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="M508" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="509" spans="2:13">
+      <c r="B509" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="510" spans="2:13">
+      <c r="B510" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="511" spans="2:13">
+      <c r="B511" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="J511" s="6" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="512" spans="2:13">
+      <c r="B512" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="J512" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="513" spans="2:5">
+      <c r="B513" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="514" spans="2:5">
+      <c r="B514" s="11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="515" spans="2:5">
+      <c r="B515" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D515" s="7"/>
+      <c r="E515" s="7"/>
+    </row>
+    <row r="516" spans="2:5">
+      <c r="B516" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="517" spans="2:5">
+      <c r="B517" s="11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="518" spans="2:5">
+      <c r="B518" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="519" spans="2:5">
+      <c r="B519" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="520" spans="2:5">
+      <c r="B520" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="521" spans="2:5">
+      <c r="B521" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="522" spans="2:5">
+      <c r="B522" s="11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="523" spans="2:5">
+      <c r="B523" s="11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="524" spans="2:5">
+      <c r="B524" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="525" spans="2:5">
+      <c r="B525" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="526" spans="2:5">
+      <c r="B526" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="527" spans="2:5">
+      <c r="B527" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="528" spans="2:5">
+      <c r="B528" s="11" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2">
+      <c r="B529" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2">
+      <c r="B530" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2">
+      <c r="B531" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2">
+      <c r="B532" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2">
+      <c r="B533" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2">
+      <c r="B534" s="11" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2">
+      <c r="B535" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2">
+      <c r="B536" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2">
+      <c r="B537" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2">
+      <c r="B538" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2">
+      <c r="B539" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2">
+      <c r="B540" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2">
+      <c r="B541" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2">
+      <c r="B542" s="11" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2">
+      <c r="B543" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2">
+      <c r="B544" s="11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2">
+      <c r="B545" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2">
+      <c r="B546" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2">
+      <c r="B548" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2">
+      <c r="B549" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2">
+      <c r="B550" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2">
+      <c r="B551" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2">
+      <c r="B552" s="11" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2">
+      <c r="B553" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2">
+      <c r="B554" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2">
+      <c r="B555" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2">
+      <c r="B556" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2">
+      <c r="B557" s="11" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2">
+      <c r="B558" s="11" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2">
+      <c r="B559" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2">
+      <c r="B560" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2">
+      <c r="B561" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2">
+      <c r="B562" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2">
+      <c r="B563" s="11" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2">
+      <c r="B564" s="11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2">
+      <c r="B565" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2">
+      <c r="B566" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2">
+      <c r="B567" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2">
+      <c r="B568" s="11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2">
+      <c r="B569" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2">
+      <c r="B570" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2">
+      <c r="B571" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2">
+      <c r="B572" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2">
+      <c r="B573" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2">
+      <c r="B574" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2">
+      <c r="B576" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2">
+      <c r="B577" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2">
+      <c r="B578" s="11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2">
+      <c r="B579" s="11" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2">
+      <c r="B580" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2">
+      <c r="B581" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2">
+      <c r="B582" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2">
+      <c r="B583" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2">
+      <c r="B584" s="11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2">
+      <c r="B585" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2">
+      <c r="B586" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2">
+      <c r="B587" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2">
+      <c r="B588" s="11" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2">
+      <c r="B589" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2">
+      <c r="B590" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2">
+      <c r="B591" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2">
+      <c r="B592" s="11" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2">
+      <c r="B593" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2">
+      <c r="B594" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2">
+      <c r="B595" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2">
+      <c r="B596" s="11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2">
+      <c r="B597" s="11" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2">
+      <c r="B598" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2">
+      <c r="B599" s="11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2">
+      <c r="B600" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2">
+      <c r="B601" s="11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2">
+      <c r="B602" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2">
+      <c r="B603" s="11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2">
+      <c r="B604" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2">
+      <c r="B605" s="11" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="606" spans="2:2">
+      <c r="B606" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2">
+      <c r="B607" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="608" spans="2:2">
+      <c r="B608" s="11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2">
+      <c r="B609" s="11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2">
+      <c r="B610" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2">
+      <c r="B611" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="612" spans="2:2">
+      <c r="B612" s="11" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="613" spans="2:2">
+      <c r="B613" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2">
+      <c r="B614" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="615" spans="2:2">
+      <c r="B615" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="616" spans="2:2">
+      <c r="B616" s="11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2">
+      <c r="B617" s="11" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="618" spans="2:2">
+      <c r="B618" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="619" spans="2:2">
+      <c r="B619" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="620" spans="2:2">
+      <c r="B620" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2">
+      <c r="B621" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="622" spans="2:2">
+      <c r="B622" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="623" spans="2:2">
+      <c r="B623" s="11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="624" spans="2:2">
+      <c r="B624" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2">
+      <c r="B625" s="11" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2">
+      <c r="B626" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2">
+      <c r="B627" s="11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2">
+      <c r="B628" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2">
+      <c r="B629" s="11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2">
+      <c r="B630" s="11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2">
+      <c r="B631" s="11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2">
+      <c r="B632" s="11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2">
+      <c r="B633" s="11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2">
+      <c r="B634" s="11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2">
+      <c r="B635" s="11" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2">
+      <c r="B636" s="11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2">
+      <c r="B637" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2">
+      <c r="B638" s="11" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2">
+      <c r="B639" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2">
+      <c r="B640" s="11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="642" spans="2:2">
+      <c r="B642" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2">
+      <c r="B643" s="11" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2">
+      <c r="B644" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="645" spans="2:2">
+      <c r="B645" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="646" spans="2:2">
+      <c r="B646" s="11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="647" spans="2:2">
+      <c r="B647" s="11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="648" spans="2:2">
+      <c r="B648" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2">
+      <c r="B649" s="11" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2">
+      <c r="B650" s="11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2">
+      <c r="B651" s="11" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2">
+      <c r="B652" s="11" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2">
+      <c r="B653" s="11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="654" spans="2:2">
+      <c r="B654" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2">
+      <c r="B655" s="11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2">
+      <c r="B656" s="11" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2">
+      <c r="B657" s="11" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="658" spans="2:2">
+      <c r="B658" s="11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2">
+      <c r="B659" s="11" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="660" spans="2:2">
+      <c r="B660" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2">
+      <c r="B661" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="662" spans="2:2">
+      <c r="B662" s="11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="663" spans="2:2">
+      <c r="B663" s="11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="664" spans="2:2">
+      <c r="B664" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2">
+      <c r="B665" s="11" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="666" spans="2:2">
+      <c r="B666" s="11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2">
+      <c r="B667" s="11" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="668" spans="2:2">
+      <c r="B668" s="11" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="669" spans="2:2">
+      <c r="B669" s="11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="670" spans="2:2">
+      <c r="B670" s="11" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="671" spans="2:2">
+      <c r="B671" s="11" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="672" spans="2:2">
+      <c r="B672" s="11" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2">
+      <c r="B673" s="11" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2">
+      <c r="B674" s="11" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2">
+      <c r="B675" s="11" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2">
+      <c r="B676" s="11" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2">
+      <c r="B677" s="11" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2">
+      <c r="B678" s="11" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2">
+      <c r="B679" s="11" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2">
+      <c r="B680" s="11" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2">
+      <c r="B681" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2">
+      <c r="B682" s="11" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2">
+      <c r="B683" s="11" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="684" spans="2:2">
+      <c r="B684" s="11" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2">
+      <c r="B685" s="11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2">
+      <c r="B686" s="11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2">
+      <c r="B687" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2">
+      <c r="B688" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2">
+      <c r="B689" s="11" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="690" spans="2:2">
+      <c r="B690" s="11" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2">
+      <c r="B691" s="11" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="692" spans="2:2">
+      <c r="B692" s="11" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2">
+      <c r="B693" s="11" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="694" spans="2:2">
+      <c r="B694" s="11" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2">
+      <c r="B695" s="11" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="696" spans="2:2">
+      <c r="B696" s="11" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2">
+      <c r="B697" s="11" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2">
+      <c r="B698" s="11" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2">
+      <c r="B699" s="11" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2">
+      <c r="B700" s="11" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2">
+      <c r="B701" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="702" spans="2:2">
+      <c r="B702" s="11" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2">
+      <c r="B703" s="11" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2">
+      <c r="B704" s="11" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2">
+      <c r="B705" s="11" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2">
+      <c r="B706" s="11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2">
+      <c r="B708" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2">
+      <c r="B709" s="11" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="710" spans="2:2">
+      <c r="B710" s="11" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2">
+      <c r="B711" s="11" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2">
+      <c r="B712" s="11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2">
+      <c r="B713" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="714" spans="2:2">
+      <c r="B714" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="715" spans="2:2">
+      <c r="B715" s="11" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2">
+      <c r="B716" s="11" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2">
+      <c r="B717" s="11" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="718" spans="2:2">
+      <c r="B718" s="11" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="719" spans="2:2">
+      <c r="B719" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="720" spans="2:2">
+      <c r="B720" s="11" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2">
+      <c r="B721" s="11" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="722" spans="2:2">
+      <c r="B722" s="11" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2">
+      <c r="B723" s="11" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="724" spans="2:2">
+      <c r="B724" s="11" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2">
+      <c r="B725" s="11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="726" spans="2:2">
+      <c r="B726" s="11" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2">
+      <c r="B727" s="11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="728" spans="2:2">
+      <c r="B728" s="11" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="729" spans="2:2">
+      <c r="B729" s="11" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="730" spans="2:2">
+      <c r="B730" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="731" spans="2:2">
+      <c r="B731" s="11" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="732" spans="2:2">
+      <c r="B732" s="11" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="733" spans="2:2">
+      <c r="B733" s="11" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="734" spans="2:2">
+      <c r="B734" s="11" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="735" spans="2:2">
+      <c r="B735" s="11" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="736" spans="2:2">
+      <c r="B736" s="11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2">
+      <c r="B737" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="738" spans="2:2">
+      <c r="B738" s="11" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2">
+      <c r="B739" s="11" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="740" spans="2:2">
+      <c r="B740" s="11" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="741" spans="2:2">
+      <c r="B741" s="11" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="742" spans="2:2">
+      <c r="B742" s="11" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2">
+      <c r="B743" s="11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="744" spans="2:2">
+      <c r="B744" s="11" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="745" spans="2:2">
+      <c r="B745" s="11" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="746" spans="2:2">
+      <c r="B746" s="11" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="747" spans="2:2">
+      <c r="B747" s="11" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="748" spans="2:2">
+      <c r="B748" s="11" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="749" spans="2:2">
+      <c r="B749" s="11" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="750" spans="2:2">
+      <c r="B750" s="11" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="751" spans="2:2">
+      <c r="B751" s="11" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2">
+      <c r="B752" s="11" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2">
+      <c r="B753" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="754" spans="2:2">
+      <c r="B754" s="11" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="755" spans="2:2">
+      <c r="B755" s="11" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="756" spans="2:2">
+      <c r="B756" s="11" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="757" spans="2:2">
+      <c r="B757" s="11" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="758" spans="2:2">
+      <c r="B758" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2">
+      <c r="B759" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="760" spans="2:2">
+      <c r="B760" s="11" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="761" spans="2:2">
+      <c r="B761" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="762" spans="2:2">
+      <c r="B762" s="11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="763" spans="2:2">
+      <c r="B763" s="11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="764" spans="2:2">
+      <c r="B764" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2">
+      <c r="B765" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="766" spans="2:2">
+      <c r="B766" s="11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="767" spans="2:2">
+      <c r="B767" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="768" spans="2:2">
+      <c r="B768" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="769" spans="2:2">
+      <c r="B769" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="770" spans="2:2">
+      <c r="B770" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2">
+      <c r="B771" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="772" spans="2:2">
+      <c r="B772" s="11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="774" spans="2:2">
+      <c r="B774" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2">
+      <c r="B775" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="776" spans="2:2">
+      <c r="B776" s="11" t="s">
         <v>179</v>
       </c>
     </row>
